--- a/go-idoc2txt/idoctypes/zmap_edidc40.xlsx
+++ b/go-idoc2txt/idoctypes/zmap_edidc40.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_portab\01_rb\_rbprogs\go-idoc2txt\idoctypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAADF57B-7388-4DF0-ADF3-887B04A47BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edi_dc40" sheetId="1" r:id="rId1"/>
@@ -594,7 +595,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1394,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1405,27 +1406,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="45.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.1796875" style="2" customWidth="1"/>
     <col min="11" max="11" width="5" style="2" customWidth="1"/>
-    <col min="12" max="13" width="2.88671875" style="2" customWidth="1"/>
-    <col min="14" max="15" width="4.5546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7.109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="2"/>
+    <col min="12" max="13" width="2.90625" style="2" customWidth="1"/>
+    <col min="14" max="15" width="4.54296875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7.08984375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>172</v>
       </c>
@@ -1478,7 +1476,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1511,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +1778,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1824,7 +1822,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1866,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +1910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1957,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2004,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2053,7 +2051,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2095,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2141,7 +2139,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2188,7 +2186,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2235,7 +2233,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2280,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -2329,7 +2327,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2376,7 +2374,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2423,7 +2421,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2470,7 +2468,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2514,7 +2512,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2561,7 +2559,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -2608,7 +2606,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -2655,7 +2653,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2699,7 +2697,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2746,7 +2744,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2790,7 +2788,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2837,7 +2835,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2884,7 +2882,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2931,7 +2929,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2978,7 +2976,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -3025,7 +3023,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -3072,7 +3070,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -3119,7 +3117,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -3164,7 +3162,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1"/>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
